--- a/database/data_to_add/re_do/Wasserman_2011_tbl1.xlsx
+++ b/database/data_to_add/re_do/Wasserman_2011_tbl1.xlsx
@@ -1,39 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pacif\Desktop\PDF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff.Wesner\Documents\GitHub\Freshwater-Fish-Diet-Database\database\data_to_add\re_do\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{311D975F-4244-48AC-8CF4-D437A1F7BDD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F87FC5E-FC55-451A-9C6A-192A3F8EDF41}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="3804" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="70">
   <si>
     <t>site_name</t>
-  </si>
-  <si>
-    <t>lat</t>
-  </si>
-  <si>
-    <t>long</t>
   </si>
   <si>
     <t>predator_min_length</t>
@@ -213,9 +213,6 @@
     <t>percent volume</t>
   </si>
   <si>
-    <t>river</t>
-  </si>
-  <si>
     <t>Kowie River, South Africa</t>
   </si>
   <si>
@@ -226,25 +223,58 @@
   </si>
   <si>
     <t>Micropterus salmoides</t>
+  </si>
+  <si>
+    <t>data_sorted_by</t>
+  </si>
+  <si>
+    <t>sample_id</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>large</t>
+  </si>
+  <si>
+    <t>lotic</t>
+  </si>
+  <si>
+    <t>averaged over date and size</t>
+  </si>
+  <si>
+    <t>re-entered on 2020-02-14 because original extraction had missing prey taxa (pdf table covered two pages. Only extracted one originally)</t>
+  </si>
+  <si>
+    <t>Micropterus</t>
+  </si>
+  <si>
+    <t>Cilchristella aestuaria</t>
+  </si>
+  <si>
+    <t>Glossogobius callidus</t>
+  </si>
+  <si>
+    <t>Myxus capensis</t>
+  </si>
+  <si>
+    <t>Fish remains</t>
+  </si>
+  <si>
+    <t>organic material</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -266,18 +296,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCE4D6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -294,15 +318,13 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,174 +605,201 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS7"/>
+  <dimension ref="A1:AY15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AZ1" sqref="AZ1:BA1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" t="s">
+        <v>57</v>
+      </c>
+      <c r="W1" t="s">
+        <v>58</v>
+      </c>
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AE1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AF1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AG1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AH1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AI1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AK1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AL1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AM1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AN1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AO1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AP1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AS1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>44</v>
+      <c r="AT1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
         <v>56</v>
       </c>
-      <c r="D2">
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2">
         <v>32</v>
-      </c>
-      <c r="E2">
-        <v>95</v>
       </c>
       <c r="F2">
         <v>138</v>
       </c>
-      <c r="G2" t="s">
-        <v>57</v>
+      <c r="G2">
+        <v>95</v>
       </c>
       <c r="H2" t="s">
-        <v>58</v>
+        <v>54</v>
+      </c>
+      <c r="I2" t="s">
+        <v>55</v>
       </c>
       <c r="J2" t="s">
         <v>59</v>
@@ -762,114 +811,144 @@
         <v>39873</v>
       </c>
       <c r="M2" s="7">
-        <v>36892</v>
+        <v>40210</v>
       </c>
       <c r="O2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="Q2" t="s">
-        <v>52</v>
-      </c>
-      <c r="R2" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="R2">
+        <v>2011</v>
       </c>
       <c r="S2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="U2" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" t="s">
+        <v>62</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>33</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>2</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>5</v>
+      </c>
+      <c r="AD2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="3">
+        <v>70</v>
+      </c>
+      <c r="AF2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="3">
+        <v>63</v>
+      </c>
+      <c r="AI2" s="3">
+        <v>2</v>
+      </c>
+      <c r="AJ2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="3">
+        <v>206</v>
+      </c>
+      <c r="AP2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS2" s="3">
+        <v>6</v>
+      </c>
+      <c r="AT2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="3">
+        <v>5</v>
+      </c>
+      <c r="AW2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="3">
+        <v>3</v>
+      </c>
+      <c r="AY2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
         <v>49</v>
       </c>
-      <c r="T2">
-        <v>2011</v>
-      </c>
-      <c r="U2" t="s">
-        <v>48</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="W2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y2" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="4">
-        <v>33</v>
-      </c>
-      <c r="AA2" s="4">
-        <v>2</v>
-      </c>
-      <c r="AB2" s="4">
-        <v>2</v>
-      </c>
-      <c r="AC2" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD2" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="4">
-        <v>70</v>
-      </c>
-      <c r="AF2" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="4">
-        <v>63</v>
-      </c>
-      <c r="AI2" s="4">
-        <v>2</v>
-      </c>
-      <c r="AJ2" s="4">
-        <v>1</v>
-      </c>
-      <c r="AK2" s="4">
-        <v>1</v>
-      </c>
-      <c r="AL2" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AN2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AO2" s="4">
-        <v>206</v>
-      </c>
-      <c r="AP2" s="4">
-        <v>1</v>
-      </c>
-      <c r="AQ2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AR2" s="4">
-        <v>3</v>
-      </c>
-      <c r="AS2" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
         <v>32</v>
-      </c>
-      <c r="E3">
-        <v>95</v>
       </c>
       <c r="F3">
         <v>138</v>
       </c>
-      <c r="G3" t="s">
-        <v>57</v>
+      <c r="G3">
+        <v>95</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>54</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
       </c>
       <c r="J3" t="s">
         <v>59</v>
@@ -881,114 +960,144 @@
         <v>39873</v>
       </c>
       <c r="M3" s="7">
-        <v>36892</v>
+        <v>40210</v>
       </c>
       <c r="O3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="Q3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R3">
+        <v>2011</v>
+      </c>
+      <c r="S3" t="s">
+        <v>46</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="U3" t="s">
+        <v>44</v>
+      </c>
+      <c r="V3" t="s">
+        <v>62</v>
+      </c>
+      <c r="W3">
+        <v>2</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>8.1</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="AD3" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AE3" s="4">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="AF3" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="4">
+        <v>15.4</v>
+      </c>
+      <c r="AI3" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AJ3" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AK3" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AL3" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AM3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="4">
+        <v>50.5</v>
+      </c>
+      <c r="AP3" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AQ3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="AS3" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="AT3" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AU3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="AW3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="AY3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>53</v>
       </c>
-      <c r="R3" t="s">
-        <v>51</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
         <v>49</v>
       </c>
-      <c r="T3">
-        <v>2011</v>
-      </c>
-      <c r="U3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="W3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y3" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="5">
-        <v>8.1</v>
-      </c>
-      <c r="AA3" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="AB3" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="AC3" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="AD3" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="AE3" s="5">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="AF3" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="AG3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="5">
-        <v>15.4</v>
-      </c>
-      <c r="AI3" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="AJ3" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="AK3" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="AL3" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="AM3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="5">
-        <v>50.5</v>
-      </c>
-      <c r="AP3" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="AQ3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="AS3" s="5">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4">
+      <c r="E4">
         <v>32</v>
-      </c>
-      <c r="E4">
-        <v>95</v>
       </c>
       <c r="F4">
         <v>138</v>
       </c>
-      <c r="G4" t="s">
-        <v>57</v>
+      <c r="G4">
+        <v>95</v>
       </c>
       <c r="H4" t="s">
-        <v>58</v>
+        <v>54</v>
+      </c>
+      <c r="I4" t="s">
+        <v>55</v>
       </c>
       <c r="J4" t="s">
         <v>59</v>
@@ -1000,117 +1109,147 @@
         <v>39873</v>
       </c>
       <c r="M4" s="7">
-        <v>36892</v>
+        <v>40210</v>
       </c>
       <c r="O4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="Q4" t="s">
-        <v>54</v>
-      </c>
-      <c r="R4" t="s">
-        <v>51</v>
+        <v>47</v>
+      </c>
+      <c r="R4">
+        <v>2011</v>
       </c>
       <c r="S4" t="s">
-        <v>49</v>
-      </c>
-      <c r="T4">
-        <v>2011</v>
+        <v>46</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="U4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V4" t="s">
+        <v>62</v>
+      </c>
+      <c r="W4">
+        <v>3</v>
+      </c>
+      <c r="X4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="AD4" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>11.4</v>
+      </c>
+      <c r="AF4" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="AI4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AJ4" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="AK4" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="AL4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AM4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="3">
+        <v>23</v>
+      </c>
+      <c r="AP4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AQ4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="AS4" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="AT4" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="AU4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="4">
+        <v>6.4</v>
+      </c>
+      <c r="AW4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AY4" s="4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
         <v>48</v>
       </c>
-      <c r="V4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="W4" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y4" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="AA4" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="AB4" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="AC4" s="5">
-        <v>3.6</v>
-      </c>
-      <c r="AD4" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="AE4" s="5">
-        <v>11.4</v>
-      </c>
-      <c r="AF4" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="AG4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="5">
-        <v>1.6</v>
-      </c>
-      <c r="AI4" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="AJ4" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="AK4" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="AL4" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="AM4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="4">
-        <v>23</v>
-      </c>
-      <c r="AP4" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="AQ4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AR4" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="AS4" s="5">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5">
+      <c r="E5">
         <v>192</v>
-      </c>
-      <c r="E5">
-        <v>380</v>
       </c>
       <c r="F5">
         <v>448</v>
       </c>
-      <c r="G5" t="s">
-        <v>57</v>
+      <c r="G5">
+        <v>380</v>
       </c>
       <c r="H5" t="s">
-        <v>58</v>
+        <v>54</v>
+      </c>
+      <c r="I5" t="s">
+        <v>55</v>
       </c>
       <c r="J5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K5">
         <v>54</v>
@@ -1119,117 +1258,147 @@
         <v>39873</v>
       </c>
       <c r="M5" s="7">
-        <v>36892</v>
+        <v>40210</v>
       </c>
       <c r="O5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="Q5" t="s">
-        <v>52</v>
-      </c>
-      <c r="R5" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="R5">
+        <v>2011</v>
       </c>
       <c r="S5" t="s">
+        <v>46</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="U5" t="s">
+        <v>44</v>
+      </c>
+      <c r="V5" t="s">
+        <v>62</v>
+      </c>
+      <c r="W5">
+        <v>4</v>
+      </c>
+      <c r="X5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>9</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>2</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>2</v>
+      </c>
+      <c r="AH5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="3">
+        <v>17</v>
+      </c>
+      <c r="AK5" s="3">
+        <v>57</v>
+      </c>
+      <c r="AL5" s="3">
+        <v>10</v>
+      </c>
+      <c r="AM5" s="3">
+        <v>18</v>
+      </c>
+      <c r="AN5" s="3">
+        <v>2</v>
+      </c>
+      <c r="AO5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="3">
+        <v>62</v>
+      </c>
+      <c r="AQ5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU5" s="3">
+        <v>4</v>
+      </c>
+      <c r="AV5" s="3">
+        <v>6</v>
+      </c>
+      <c r="AW5" s="3">
+        <v>2</v>
+      </c>
+      <c r="AX5" s="3">
+        <v>8</v>
+      </c>
+      <c r="AY5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
         <v>49</v>
       </c>
-      <c r="T5">
-        <v>2011</v>
-      </c>
-      <c r="U5" t="s">
-        <v>48</v>
-      </c>
-      <c r="V5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="W5" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y5" s="4">
-        <v>9</v>
-      </c>
-      <c r="Z5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="4">
-        <v>2</v>
-      </c>
-      <c r="AB5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="4">
-        <v>2</v>
-      </c>
-      <c r="AH5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="4">
-        <v>17</v>
-      </c>
-      <c r="AK5" s="4">
-        <v>57</v>
-      </c>
-      <c r="AL5" s="4">
-        <v>10</v>
-      </c>
-      <c r="AM5" s="4">
-        <v>18</v>
-      </c>
-      <c r="AN5" s="4">
-        <v>2</v>
-      </c>
-      <c r="AO5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="4">
-        <v>62</v>
-      </c>
-      <c r="AQ5" s="4">
-        <v>1</v>
-      </c>
-      <c r="AR5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6">
+      <c r="E6">
         <v>192</v>
-      </c>
-      <c r="E6">
-        <v>380</v>
       </c>
       <c r="F6">
         <v>448</v>
       </c>
-      <c r="G6" t="s">
-        <v>57</v>
+      <c r="G6">
+        <v>380</v>
       </c>
       <c r="H6" t="s">
-        <v>58</v>
+        <v>54</v>
+      </c>
+      <c r="I6" t="s">
+        <v>55</v>
       </c>
       <c r="J6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K6">
         <v>54</v>
@@ -1238,117 +1407,147 @@
         <v>39873</v>
       </c>
       <c r="M6" s="7">
-        <v>36892</v>
+        <v>40210</v>
       </c>
       <c r="O6" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="Q6" t="s">
+        <v>47</v>
+      </c>
+      <c r="R6">
+        <v>2011</v>
+      </c>
+      <c r="S6" t="s">
+        <v>46</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="U6" t="s">
+        <v>44</v>
+      </c>
+      <c r="V6" t="s">
+        <v>62</v>
+      </c>
+      <c r="W6">
+        <v>5</v>
+      </c>
+      <c r="X6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="4">
+        <v>8.4</v>
+      </c>
+      <c r="AK6" s="4">
+        <v>28.2</v>
+      </c>
+      <c r="AL6" s="3">
+        <v>5</v>
+      </c>
+      <c r="AM6" s="4">
+        <v>8.9</v>
+      </c>
+      <c r="AN6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="4">
+        <v>30.7</v>
+      </c>
+      <c r="AQ6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AR6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AU6" s="3">
+        <v>2</v>
+      </c>
+      <c r="AV6" s="3">
+        <v>3</v>
+      </c>
+      <c r="AW6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="AY6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>53</v>
       </c>
-      <c r="R6" t="s">
-        <v>51</v>
-      </c>
-      <c r="S6" t="s">
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
         <v>49</v>
       </c>
-      <c r="T6">
-        <v>2011</v>
-      </c>
-      <c r="U6" t="s">
-        <v>48</v>
-      </c>
-      <c r="V6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="W6" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y6" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="Z6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="4">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="5">
-        <v>8.4</v>
-      </c>
-      <c r="AK6" s="5">
-        <v>28.2</v>
-      </c>
-      <c r="AL6" s="4">
-        <v>5</v>
-      </c>
-      <c r="AM6" s="5">
-        <v>8.9</v>
-      </c>
-      <c r="AN6" s="4">
-        <v>1</v>
-      </c>
-      <c r="AO6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="5">
-        <v>30.7</v>
-      </c>
-      <c r="AQ6" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="AR6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7">
+      <c r="E7">
         <v>192</v>
-      </c>
-      <c r="E7">
-        <v>380</v>
       </c>
       <c r="F7">
         <v>448</v>
       </c>
-      <c r="G7" t="s">
-        <v>57</v>
+      <c r="G7">
+        <v>380</v>
       </c>
       <c r="H7" t="s">
-        <v>58</v>
+        <v>54</v>
+      </c>
+      <c r="I7" t="s">
+        <v>55</v>
       </c>
       <c r="J7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K7">
         <v>54</v>
@@ -1357,95 +1556,137 @@
         <v>39873</v>
       </c>
       <c r="M7" s="7">
-        <v>36892</v>
+        <v>40210</v>
       </c>
       <c r="O7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="Q7" t="s">
-        <v>54</v>
-      </c>
-      <c r="R7" t="s">
-        <v>51</v>
+        <v>47</v>
+      </c>
+      <c r="R7">
+        <v>2011</v>
       </c>
       <c r="S7" t="s">
-        <v>49</v>
-      </c>
-      <c r="T7">
-        <v>2011</v>
+        <v>46</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="U7" t="s">
-        <v>48</v>
-      </c>
-      <c r="V7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="W7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y7" s="5">
+        <v>44</v>
+      </c>
+      <c r="V7" t="s">
+        <v>62</v>
+      </c>
+      <c r="W7">
+        <v>6</v>
+      </c>
+      <c r="X7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y7" s="4">
         <v>0.5</v>
       </c>
-      <c r="Z7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="5">
+      <c r="Z7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="4">
         <v>0.3</v>
       </c>
-      <c r="AB7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="5">
+      <c r="AB7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="4">
         <v>0.8</v>
       </c>
-      <c r="AH7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="5">
+      <c r="AH7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="4">
         <v>2.8</v>
       </c>
-      <c r="AK7" s="5">
+      <c r="AK7" s="4">
         <v>10.8</v>
       </c>
-      <c r="AL7" s="5">
+      <c r="AL7" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AM7" s="5">
+      <c r="AM7" s="4">
         <v>0.7</v>
       </c>
-      <c r="AN7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="5">
+      <c r="AN7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="4">
         <v>42.1</v>
       </c>
-      <c r="AQ7" s="5">
+      <c r="AQ7" s="4">
         <v>0.2</v>
       </c>
-      <c r="AR7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="4">
-        <v>0</v>
-      </c>
+      <c r="AR7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AU7" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="AV7" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="AW7" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="AX7" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="AY7" s="3">
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="Y9" s="6"/>
+    </row>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="Y10" s="6"/>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="Y11" s="6"/>
+    </row>
+    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="Y12" s="6"/>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="Y13" s="6"/>
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="Y14" s="6"/>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="Y15" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
